--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/45_Kars_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/45_Kars_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{380A603F-CB7D-41FD-909A-D859D83390DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F49E846-E5EE-4830-8E56-9108310248D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{F0BF242A-8AC1-41E2-9724-382A42B86073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{3EE1F962-78C7-4B08-AFE2-F31C668E6FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -945,13 +945,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8EA3438F-E529-4269-A2A2-DEB64541781B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6D8128FD-575A-4F4C-AB3D-6AE9F7731738}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{53F44C3C-D3EF-4037-AED2-B197B42A4D13}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6F12FACD-0739-49C8-8074-62DCFFE4A133}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{27E2A9C0-BAB4-403A-B145-8C0B7140855B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9EEEC132-BB53-452B-AD83-42F0336440B6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{431BCA3F-8E7C-42FC-9018-690BD19FBF79}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D899069A-973C-41C8-B4FE-3A98DCF264FB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6CDB2B05-03C6-4E9D-8A57-AFBABA532574}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B27F1D8A-69B6-4789-BF28-E0EA03B8C934}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1F4FE32F-5AB4-466E-956A-B7C7A6A48BB2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7EDBD000-36C2-45FB-B87E-3F53DC6D63F7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{82213F7B-147E-4570-95EA-C1A62DC63172}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{81DE217A-3353-4BFD-81AA-6B94290E99BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13756E8B-ED37-447A-8979-77D516655529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29993FA3-5AF7-4231-946F-326BC0A2D462}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2582,18 +2582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CFDF62E-53BD-4058-BB69-3484A862AA56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3DC2CC7-E2B8-45BE-BA76-5E7EAC705EFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B42BFF34-2725-4AE3-8C2E-8FE2B775D72B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{870DFABA-CAAC-4970-A158-6EC6BDF57E3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36C597BB-EF28-4752-84D3-2EDA41212DA3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8BF8561D-5C19-4E11-8B5D-91D7C6DC2E87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C40743B4-E811-466A-879A-E000C67A15CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B3A6457-0442-43D6-8BAC-41575CA1D23C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B3D6931-3330-44EB-9CB9-0B9CD66BEAF7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DBD7A337-23A8-478B-8B98-5AFCB9A07CB7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30A5D15E-EA67-4715-AD09-B08929584DAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98BC321F-307F-439A-B55B-BF1BFC602373}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7C4FD84-7909-42AC-8472-D951A3B22450}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C97DE31-122A-4542-89DF-F0A89AD7D5D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E5499E3-4937-49F0-A941-D31894375ECB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCC9843A-3B3E-4409-AB38-8535B6D7B917}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0B2CE91-1002-471E-822A-76323AB29DA4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3BFB8A8-5182-4DA3-ABAD-F46688DF4787}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6A495E9-C90A-4FB0-A16A-0D672D1C99DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7E28748-510F-4ED8-B7DF-64410535448A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89B6AC96-8520-4CB2-A1A3-B8292E62F115}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B26BDB9-F820-4407-AAC1-407F76ABAA39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8961469E-4DE5-4363-A84F-18DF4B11CA78}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2A38FDB-06AD-472C-9D0F-947EA8AE8938}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B97F58-D2A7-44D5-AB76-57586A37C555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1E00E6-A9F1-48EB-A560-1393A5F7867D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3837,18 +3837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6263AD5C-CCB8-4BAE-9C4B-B72FA7002A2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21F9CBB0-C87C-4408-9EF3-D495E5EA660D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F095C5D-C77D-47CB-9BB9-26E844A836A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{952EAF82-45D6-4DF7-80B6-675B33ED9F00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB2723FF-C1A6-46AC-B807-FDA2C7B5F624}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F65E1217-FD77-49EE-892F-966E066F55A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBC6D402-9E68-4923-9963-77C45179D246}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F14867D0-C562-421D-9879-16A6E04BD284}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E77D5BF2-D59E-4E0C-B2C4-9C0A72396254}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E9199025-8642-440F-9643-FC6FEDF10BF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{580B20DA-E0BA-4C9C-9361-C85777DA88E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EAD461FB-76F4-4ED4-B6CF-DF2328E902F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F1BB042-F73A-48D2-B243-538CB0B2923A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F78FAA37-A67D-4CAF-84C4-3FE42E4D2B9F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1CD985E3-CEF2-419B-9CE2-11A6C695E20B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC6CFE1D-C3A1-466C-B84D-8A0C5E1316EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{724FDAF1-EDA9-4EB1-B86F-C50DCB2CB72D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7DD619A1-8E8E-4D33-B131-5B9914FD54CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86ABE683-55F9-4EBC-87C2-BFF307D619D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E591764-06A2-41E2-B673-4E1BAC5843F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9290DA45-9EA9-4673-BD22-A8F44B51C372}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DEC02CD6-A544-4552-860C-DF53ADF1C3DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F941E4BB-6229-451C-A10F-222EEEA2BB42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23A38620-3E09-4026-8C2B-2859B921A0B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3861,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A9647E-4F94-4AB7-B9AC-FE291C2697A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF80579C-08BA-4FE3-9D5F-4EB949BE78FF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5092,18 +5092,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{484A47F3-EC92-4082-A780-1B8AA77B3030}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C0217F9-5BEC-4ECC-8798-ACA940875A7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B1F6490-3AFA-4D7E-87F6-7C6855AD1157}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D645D1B-00BA-4BEF-AE28-ED8E594B5A7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE22E87D-926D-4071-85EA-F08564FA09B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E61212E8-A466-408F-9C98-4F0C266B0CA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CFC746A-18D4-4BA5-893F-CB7AA9F06AD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{200C3AF2-E311-498E-B6A5-E1E363A0F675}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{666CC579-E4C1-4135-BF6F-BDB8BA1EB91D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF8FEE7D-025E-4ABC-BBA7-658092AB7228}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00A162C7-77C4-4630-9291-4F529C44F27A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4784B18C-2D9E-47F6-A033-9B702D6B2BA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A3D4929-17E5-4290-BF45-551FD4E3E340}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25B046C0-8AF6-47E5-AE3A-79F2BC6E9A94}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE115BFA-ADC3-4DAC-8F68-921083E35721}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{853134E5-FC4E-47EB-A013-E26B5CA5D717}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EA3B256-D06B-4F8F-9EF2-46955338DD4F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{71AD9A6B-4EDA-4899-ACB0-5C31C900E77F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E43E04B3-7F1A-48CC-91A2-DEC02EC9BF2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FD0A43C-4570-45CE-B3A7-4BD091112C69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C583110-7F19-484C-844C-BFA03BF7C618}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{76C6C638-5AEE-44B1-918A-3CFC96D57ADB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2EDFF61-1839-42FA-8FF9-EA7B5D52DBFB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79849BFD-A028-4BCB-916D-1756E671C3D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5116,7 +5116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623C7B12-0A5E-4AC1-AA52-8FB59FA8D7E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB876ABA-8411-481A-9D7A-43336F0A73AF}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6338,18 +6338,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9FF68DB-A291-4144-9C56-21E460419369}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70BB6918-6F31-4349-9BAE-5E3EE12A976D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{603C7846-D368-4CBE-894E-AB4077A566B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26D316E2-6FD8-43A8-9C72-7191CE5C3131}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF3BB88C-CDDA-4B0A-8B1E-8E84336DE7A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5F7D319-E83D-4EBA-971C-94DF0BBE7407}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA72B69A-4F05-4D66-8355-83FDD282A58F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84A9AADF-EC64-4F8D-A6EE-F8291AFD7A23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6D25F11-EBF5-4925-BF3A-9BBC11CB0FC6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90BAF772-3B0B-4AE7-A6BA-636DE8AD53C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5813176-F3EE-49E4-9B86-ED389287CF09}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E6B3AA9-55A4-499F-A29B-5D56D493B134}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDA6A894-E30B-4659-AB1F-438CE09D7592}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E73C685-6FAD-495B-90D9-3E2DF94A997A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E5961DD0-5171-46B8-A06E-138BDD44CD42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C25E3DE8-A338-49BF-91B5-3F89833D2C73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FD29B1F-0C8C-4EBC-81A6-4EC58FED6E02}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{84A6E031-CA08-49F0-9339-6818B7BD396C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{406D62F0-B09B-49D7-82BE-C5813DE4609F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE259497-AE8F-4A49-98A0-445C865887C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97173EA5-2DA1-4AB2-83B0-57550B8AA25D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{320C78FB-0874-4FA0-8C93-C6C850061166}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2308C988-3647-4C60-AC5A-2F2151080843}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE3CCE4D-9D47-4F31-B328-6D564C3DD48D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6362,7 +6362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CA8EE5-E777-497E-8A1E-2833BD293227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10AC1EF-A99B-442B-8E10-022CB70E66FE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7623,18 +7623,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CC44F88-CC3B-413C-B16F-BB34386803A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B120678C-506E-438A-8DDE-3A637CB44C06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F52E58EE-CB1B-4CCD-993B-3C801DD3E113}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FADC906-B1AB-420F-B9A8-74DC0AA6A3DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A12C129-BC48-456D-9E55-A0AB911426B0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D63D8F8-CCE9-4386-AACA-A9E42DEE8E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39996C1B-626A-493A-929B-8A5A8030581B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2620DFCB-48A5-4AA5-83F8-801E253C6EF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F881650-5431-4265-B0DD-97A866205488}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1F13CFAF-6096-4191-9DC6-284176E0533C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41858696-FF57-432C-BC85-27A69A11B7A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A640469B-F5DB-47A3-87FB-03529C2BB8B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E177F33-105B-41EF-992C-DC421EABD41F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E650ACDD-46AE-49C3-B2A9-E5FD58DAB90C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FB3DF28-5D6C-4A4C-BAB0-1599AB83BA02}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0B426AA-7CE7-4CA7-A138-9697E8E0DB85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{807A9C3D-0D7A-43B1-9B10-23219F7EC9A4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E86902FA-D305-4428-B519-DA075A143B04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CBFE3E4-3BD9-4398-BAD3-4E91A83732DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A74818CF-673C-4B61-B4C2-8D2D2373F6F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36309BC4-3A14-4E16-B221-5D0781E7F052}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F97EB9BD-9C1B-4402-8A10-CD96E088B1FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF027421-6E89-40B8-ACF7-6E2BDD98DB93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F19CAA6-7C2E-4B69-8369-36D2A2AE3258}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7647,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44275772-1A1E-4D4E-A2C4-2D6490C3C894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC64C5-0D23-4BB4-9BC7-AEEF8762EE8C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8908,18 +8908,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B34DC5F4-E67B-4FC1-A813-1341F0A0F5DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C36E0FC-F820-4EF2-ABB6-E6C64940C90C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59C47071-DAF4-40BB-BD78-CB5A2D270D99}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FE1A882-9C84-4D7F-83D8-B0911126D644}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F4F17AE-6ECB-4979-9AA1-EE158A50ADDE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{400E7A4F-BFAF-463D-9F5A-E84EE867E5D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96614200-44C9-4111-985E-4F9BDFCD50C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6604F940-6BD2-48E5-B8C5-04524B0A6B25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B95677C8-7C79-4031-AAFB-005A3281902B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB9F5346-6BF5-4B06-9C8F-805D2DEB59CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26CC4240-FB95-461D-A6C9-8389FF1F56F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C911A280-B13E-4068-AC9A-5D9FBC06197E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{532FA75B-2162-4A8D-B1FD-ECA76D622962}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{634AB998-EDBC-459B-9948-FBD680D710D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC06B151-638E-4EE2-9BC1-1EF92FC1A600}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2563C6F9-83EB-406C-92A2-F1ABC0FBC1C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2622935A-B910-4388-AF90-626C58C8BC88}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E4B8F59F-405D-467B-852C-D562A5352F4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FA62679-8260-482C-BE0A-2DDF78B53EDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{482BB48F-9A11-4383-92FB-01B4E0E61859}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE127F6C-7D67-41EF-9BDF-91DA02279937}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{878E2546-6A4C-4AA2-9A48-7C6489C9B75D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F663430-9046-453B-A99B-04352FE49B25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{006C6F8B-1B3D-4A4E-AD3A-B64757A74478}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8932,7 +8932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370C8A60-BEFB-4D5D-9786-3231D0369EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8796A4EA-254E-446A-8B37-BE4B3E529C9C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10193,18 +10193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2291F672-D0A5-4915-9E38-5A78A433DA5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ABEDE7B-E763-460A-8334-9017321B8D5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1FCF26B1-C518-42EF-97F1-8F4C8168F02A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5D559EE-389A-4053-9BB8-B002317886CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCF2E3C7-6117-4493-B0C9-ADACEFC769BC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{592DBF46-D92A-4BCA-A7C5-10456D0E9C61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31522961-00D8-450A-9887-54E25D2F11BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87D7594A-2A9E-48CD-A388-59ED147B4DED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67D0C9EE-D115-41CB-A605-B1C625657C28}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DBE511AE-035A-4FFC-B91B-CF6BBC56DE5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0B7184F-4E5C-4ADA-80FD-C751AB220762}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DE6FE3E-EA83-4FF2-94FD-B1FF3A561FE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EBF156C-FB67-43CF-AE8F-1605098CE055}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD2BDF87-A555-4B4C-AEA0-213FB40A8B17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B2667BE-1824-4569-813F-649DE9A94434}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5846852-F5E7-47AF-96FD-68852D5EE872}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D34FA8D6-2372-4CD8-ABC2-56689DBBED32}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{223F5942-8BA6-4964-9021-D686626CA83C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09DCC9F6-D621-49F6-AA13-B3198B69E6F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77F0F603-131B-4FB1-B552-166DC84E1B17}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35DFAED0-49C6-4627-B7E2-13C5211CF008}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3A3B24B2-2F9E-40C6-A875-C32D638B6337}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DF17B50-FFBB-4FF7-ABFF-4813A0CDBB20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2151F706-1EEB-4AA3-9BAB-9640B46B4B34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10217,7 +10217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4711675-B886-4430-B66C-9B282E042639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD641F29-248C-42D0-9F4C-3D304F11B31B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11478,18 +11478,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E18E1882-CA09-4D45-A68B-55C173DA39D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEFEF3E7-BCFB-464B-982D-D32EA23093A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E5A51FE8-2658-4267-9421-450AE56DABEA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72E0CB51-090A-4B71-99C1-D896B66C0747}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62CAA785-9EF3-48D1-9695-21D1518B7DDB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6DBBCEBC-7C3C-4007-A814-48C786CD3E6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E667802D-62AA-49E2-9725-071FEC98FCC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F585ABF-04FC-47E8-BD36-7822AE7CEC59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F1150FF-A2E0-451B-B34F-82CB7B151BBF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{282E8498-9E79-4235-BD57-696067E54124}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9E89C38-76B7-47A8-A1FD-5D6C7073301C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7FC3346-6707-43D3-AB26-00FC37810B21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66D8561A-634E-44E3-B517-DDAC34998702}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{389C3958-98C0-4280-AE47-B9E36E0C6671}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F0FB15E-4A7D-4442-A098-5D93C1CCC461}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF6A1DB4-7C9C-4804-B2A6-DE11257B9BC5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{565FB04B-7E05-47BB-ABD8-3B5AA7810AC2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7B030A66-62EF-4D52-A6D8-5EAF51BECCC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF188720-F194-4C70-9CE5-518CC7762BD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F00E5B75-6CF9-49C0-96B9-9E821893DD4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED2943F1-B730-49EE-8511-E0E9B503F754}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A1839F34-CD55-4264-AB6C-544166BE4429}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F55F2AA4-0FD1-4650-B497-10BE63A6F52E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABEB959E-109C-48CA-850F-36D3673172CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11502,7 +11502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC1BB48-CB0E-403B-A1C3-E785469C9406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E5258D-639A-42DF-81C4-0861C4C05013}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12755,18 +12755,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6139774-63EA-4EAF-A7A0-919D8F5285C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F3CD995-8B6B-4932-98C7-187B2BEB574C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{044A0A74-7768-4AC4-8391-DD77D269C978}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F45C38D3-E327-4FD9-84D2-0BFCF8316B6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E46FD65B-1C6B-4B02-8213-CDD0BBC0F5C4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5C3075EA-EE03-4496-A14C-3EAA0049056E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4CB52CE-A362-4D2D-A584-FC9783135560}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EAAC04B-7FC8-42BF-B2D2-5E4E2931528C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33D82265-A17C-4EAA-9634-D9EF9DAF6D60}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52792C16-C07A-4AD2-9181-E3EAEEAB02AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFEFD97C-DD46-4D3E-8871-05B65DF152EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0050AC9F-C71A-42F7-A573-894937AD6E9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDD61B4A-A4D0-4142-88E1-330DAC289885}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD96C053-6605-4AE1-A6F4-BA027C13703D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED744BC6-B96F-4DA1-83BA-B28926E010BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD59BB5A-5F79-414A-A1EF-A80AA9C05F3C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28BB959C-E84E-4CBD-8F69-1F1A24AD6E5C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17A532DD-BC03-47E5-9A7B-19549942CA9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AA3065E-2466-4C5E-901E-84463D22E3DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F2066ED-FEFE-4CEB-9095-2F52A917E70C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7255C308-EA38-4E9C-BCDE-7B5215C36C58}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6F28F3D-2CF5-43F7-AE4A-E5A1978AFC95}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF01C4BD-949C-4CF1-A13C-A02A7F2DDFDC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4414BDB-85FB-4C56-A2EF-7584B9CBCAD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12779,7 +12779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAD2CC-A02A-411C-9419-24C9019C4551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339A66D-0272-47CE-AB67-F1BAAAB418D8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14018,18 +14018,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE22FFA6-1A02-4F8E-81C8-85504505E533}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CD13E9D-8FA7-47F2-BA7E-0B9D0C339AC9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D5CBBE4-D172-4913-A2D9-AEF61BB7D872}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{277B7DAF-0D33-4325-B3AD-7E46F1EE94C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1F54DF9-E2AA-45AB-810C-2F82361DDF6C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08D7700A-2390-4B51-BF08-DE6CD8E73C8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{360C4265-4039-439A-8692-46F84D36CFE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0ABB2EB-502C-4641-BF50-67CBCFF91DB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47355216-64C4-48C1-AD9A-9AE12B9039C7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D8464B98-FC31-407F-9002-8C62831483EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16ED72D6-465A-4D1D-B781-A77564DF22EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FEC133B8-EBD5-4526-B720-4425C123BFB8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BDF8432-E8BB-4BC8-83DF-BC23CA8F28D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A41AFE4-AE08-4CDD-98D9-AF90AEA7DB42}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9343BF5C-00D6-4DCF-864F-02620F2F8A9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{634AC5F7-5270-4045-8BF9-DE73B16C18AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDB2C47A-FD36-4DA1-BF37-9DAEFCBF0A34}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EDD5261E-F63C-4912-82B0-D59EFFB7BCF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{611C12BF-CCFA-472D-93A4-CA75FC9A8251}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47C4A6B5-626F-4755-9B5F-BAEC97487E0E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E23C6831-F05E-4F8F-AE41-3F366E6D8E19}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC2738DA-7AD3-463C-9167-752969AD784D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEF2AD9F-7823-4820-8028-CD717AAA5B51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07E216B6-FF29-4276-AA4E-65F3C2C7FCFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14042,7 +14042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6304CDC5-4DEB-4B7A-AD86-0EFE2EB8C386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E403A106-ABC5-4BB2-ADE4-E0CE297A70BB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15281,18 +15281,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{983F7343-3F8A-4F67-B1FF-E781B925FEC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6E66A9A-97E3-45D9-A090-6F286965858D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC575E54-E017-4609-9536-B966F2D15829}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{461C8D21-5EE8-4017-A0DE-BB8EA178A442}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0ABE8022-AFA7-4DEF-A55B-69C802B6C5EA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8BA5066-DE87-47CF-A129-A09003289F88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F0F3105-EE70-41CB-A29B-683421B1049D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A5CB1AD-AF0C-45DF-980C-1896A74AD4D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB548ECE-D9E1-4005-AE01-930702686AE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2259A434-F80B-4868-BF00-C833726A05C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DB529E6-41B6-4733-9051-6A4AA9897F35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC5F30BE-13BC-4275-920C-7F68DF2FFF50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E3F7225-B0B2-41B7-A302-47831B6A31A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96F003A9-9F85-4DAA-A64B-17455DE2797C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BEA21D34-CD95-48B2-AFA8-B841F8BF3722}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF8C81DB-AB30-4881-91E0-4A6E404446B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C3A15B3-B84C-40F0-A00E-0E06C2A14DB7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50FBCFD9-36E5-4191-9403-D0669B446993}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E070FC47-86B3-492E-B509-2F01FE08E5D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A999F47-402D-421D-B04E-D99F05FD6D63}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{562E9D62-8532-415A-B823-38B7F2FF4ECA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{34C52E9B-887C-4193-87B7-3025A26CABEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{693DE1D2-6BE3-4960-83F6-DF2DDCF56FC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2263EB1-96EF-42F3-A3C1-EC689B84E5F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15305,7 +15305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6173C2C-7472-4AA7-B714-7CA3AB1904A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29790908-D75B-4F2A-85CE-21316E06209A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16540,18 +16540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C716622-300E-4A18-A477-05CEE13557FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE750009-006B-4E46-87ED-48ACCDB5E58C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{151C1D71-D2B4-4A52-BB81-7508E541C46A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C963E21C-3CB2-47E5-B0D8-964D7408308B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05B3FC36-B3E2-4023-A19B-66DCDC071789}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0DC5B45F-4242-485F-87CC-18F1C205897F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{973C377B-5E73-4A49-94A7-D207A073784A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2160F78E-214A-4DD7-B2E5-698342986564}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1885C42B-3497-4461-899B-FA5FFCF95ECC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9CEA63FC-7316-4A5E-A3DF-02D8BB3DD117}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9318538D-C3D3-4535-9A66-98A56E88639D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{542DC707-25EC-4629-B478-ED02B6D92F20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DD95EB5-F937-422D-B880-A65594A663DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60ABB660-31A7-4409-908D-4D04A80B5F49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CB4CD3B-26B8-4185-BFD4-13F866479DDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D173A72-2E33-4C81-9ACC-C425C33F8F4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{729D420D-D4BA-4384-81F9-8E70AF7F6F9C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26D432D0-7075-4702-B94C-3F590A02E13D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{934BBDEE-F82C-4D59-8261-7B21C0151A06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48D46589-97C8-4850-A4B1-F6A2FA796143}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{257B160E-AFEE-4EF3-860A-B21B91AC3CCB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D5AB14A3-F241-46EF-A349-A65A5235C66B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E19C562C-FF93-45E3-B07D-E5DEF51A33B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B401584A-8D02-4ED3-B2BC-7F04D2B5BAC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
